--- a/encodingTimeGroupBySmallMem.xlsx
+++ b/encodingTimeGroupBySmallMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92A79D0-D7B6-4503-A187-76859252FEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A284D6-0279-4CBA-B0D8-CDE9E3AAC508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="14175" windowHeight="11385" xr2:uid="{9D4452B6-1262-4145-A4DB-62F50C2EFF01}"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="13905" windowHeight="15735" activeTab="3" xr2:uid="{9D4452B6-1262-4145-A4DB-62F50C2EFF01}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>RLE</t>
   </si>
@@ -56,26 +56,14 @@
   <si>
     <t>HYBRID_COLUMNAR</t>
   </si>
-  <si>
-    <t>cardinality: 10</t>
-  </si>
-  <si>
-    <t>cardinality: 100</t>
-  </si>
-  <si>
-    <t>cardinality: 1000</t>
-  </si>
-  <si>
-    <t>cardinality: 10000</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,8 +97,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -163,7 +151,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [uniform]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -242,24 +230,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -328,24 +317,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -414,24 +404,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -500,24 +491,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -586,24 +578,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -672,24 +665,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -764,24 +758,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1159,7 +1154,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [uniform]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1238,24 +1233,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1324,24 +1320,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1410,24 +1407,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1496,24 +1494,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1582,24 +1581,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1668,24 +1668,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1760,24 +1761,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2155,7 +2157,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2234,24 +2244,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2320,24 +2331,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2406,24 +2418,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2492,24 +2505,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2578,24 +2592,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2664,24 +2679,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2756,24 +2772,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3151,7 +3168,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential 2]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3230,24 +3247,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3316,24 +3334,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3402,24 +3421,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3488,24 +3508,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3574,24 +3595,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3660,24 +3682,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3752,24 +3775,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6747,8 +6771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FBC918-B3EE-4BDC-81B6-BA719E7270BC}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6761,17 +6785,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6904,7 +6928,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6917,17 +6941,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7060,7 +7084,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7073,17 +7097,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7215,8 +7239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82573F2-C21C-45C8-818D-F38F95D747DA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7229,17 +7253,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/encodingTimeGroupBySmallMem.xlsx
+++ b/encodingTimeGroupBySmallMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A284D6-0279-4CBA-B0D8-CDE9E3AAC508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4576598-2935-4911-91C7-E14AA8704746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="13905" windowHeight="15735" activeTab="3" xr2:uid="{9D4452B6-1262-4145-A4DB-62F50C2EFF01}"/>
+    <workbookView minimized="1" xWindow="480" yWindow="0" windowWidth="13905" windowHeight="15735" activeTab="3" xr2:uid="{9D4452B6-1262-4145-A4DB-62F50C2EFF01}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -6772,7 +6772,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
